--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462456.150948605</v>
+        <v>393296.3414124863</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430052.997939312</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12067207.45009627</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8042865.688973621</v>
+        <v>8574109.934192413</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>92.72704515543269</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,70 +895,70 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="V5" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66.95039176927961</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>147.9845033927267</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1150,13 +1150,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0129723351653</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>95.09774413911212</v>
       </c>
       <c r="E11" t="n">
-        <v>276.1565137023555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>49.79227519630608</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.2386572690346</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>276.1565137023555</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023555</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>121.0471358344616</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>175.7569470849743</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>175.1311939478779</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>80.61419860704439</v>
       </c>
       <c r="G17" t="n">
-        <v>329.6820598185717</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.7148149200819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>216.567336734171</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2131,25 +2131,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>126.5380538746192</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2247,22 +2247,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>337.9463874884739</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>10.25658500538242</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.8041854157606</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>65.56946667100016</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>206.5177295737365</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.7835007017902</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>15.85068629184363</v>
+        <v>52.03028977826759</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>77.15919157187217</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>10.46499054460254</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>350.8368360709933</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3085,19 +3085,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.266500049788301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>91.28928585505018</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.31414305688422</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.2693362273952</v>
+        <v>157.2015916732074</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>115.4685441446654</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>142.2551106500948</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>226.9926699666566</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>87.12574707908773</v>
       </c>
       <c r="U43" t="n">
-        <v>203.1609600883621</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>225.4603876057576</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>85.42068552220969</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4424,7 +4424,7 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>761.8705608694022</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>481.618781308658</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>481.618781308658</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>369.484465818592</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.626054809422</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>825.6800813726992</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>546.7341079359765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>267.7881344992537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.0782328537872</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>231.6252035726602</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>231.6252035726602</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>72.38774856720468</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>679.0427979944841</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>828.8278839945615</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1008.180757940352</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>836.1767451915302</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>634.2968452196395</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>406.0782328537872</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>406.0782328537872</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>406.0782328537872</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>406.0782328537872</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.0782328537872</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>858.9304414063566</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C14" t="n">
-        <v>858.9304414063566</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D14" t="n">
-        <v>858.9304414063566</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E14" t="n">
-        <v>579.9844679696339</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>579.9844679696339</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>301.0384945329112</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823544</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901065</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>2301.215900344554</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>1970.153013000984</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>1970.153013000984</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y14" t="n">
-        <v>1104.626054809422</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.09252109618844</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>22.09252109618844</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618844</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618844</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618844</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364511</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291521</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>555.4329354292296</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>828.8278839945615</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>927.0937850266196</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>691.9416767948769</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>437.7043200666752</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>229.8528198611424</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.09252109618844</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492715</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160687</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9927170031359</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618844</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.578376364605</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C17" t="n">
-        <v>867.6158594241929</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D17" t="n">
-        <v>867.6158594241929</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E17" t="n">
-        <v>867.6158594241929</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F17" t="n">
-        <v>867.6158594241929</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>2013.317548404538</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X17" t="n">
-        <v>2013.317548404538</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y17" t="n">
-        <v>1623.178216428726</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5709,16 +5709,16 @@
         <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1139.146815977588</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C20" t="n">
-        <v>1139.146815977588</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D20" t="n">
-        <v>1139.146815977588</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E20" t="n">
-        <v>753.3585633793437</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>753.3585633793437</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2119.49203079998</v>
       </c>
       <c r="W20" t="n">
-        <v>2289.351746278601</v>
+        <v>1766.723375529866</v>
       </c>
       <c r="X20" t="n">
-        <v>1915.885988017521</v>
+        <v>1766.723375529866</v>
       </c>
       <c r="Y20" t="n">
-        <v>1525.74665604171</v>
+        <v>1766.723375529866</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1278.657628994267</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>1278.657628994267</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D23" t="n">
-        <v>920.3919303875161</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E23" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1652.123387255346</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1278.657628994267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>1278.657628994267</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6080,13 +6080,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>500.8207968750361</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>500.8207968750361</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2058.606050724286</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="C26" t="n">
-        <v>1689.643533783874</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="D26" t="n">
-        <v>1331.377835177124</v>
+        <v>273.6407423414366</v>
       </c>
       <c r="E26" t="n">
-        <v>945.5895825788796</v>
+        <v>273.6407423414366</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>273.6407423414366</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2312.367836086195</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2058.606050724286</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V26" t="n">
-        <v>2058.606050724286</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W26" t="n">
-        <v>2058.606050724286</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X26" t="n">
-        <v>2058.606050724286</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y26" t="n">
-        <v>2058.606050724286</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6317,40 +6317,40 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635869</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>184.0273259635869</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.0273259635869</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.806495672433</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C29" t="n">
-        <v>1326.843978732021</v>
+        <v>945.4252246568988</v>
       </c>
       <c r="D29" t="n">
-        <v>968.5782801252706</v>
+        <v>587.1595260501483</v>
       </c>
       <c r="E29" t="n">
-        <v>968.5782801252706</v>
+        <v>587.1595260501483</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
         <v>534.603677789272</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.575150942547</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1695.806495672433</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>1695.806495672433</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y29" t="n">
-        <v>1695.806495672433</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200.8329293182748</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>131.8815591656899</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U31" t="n">
-        <v>490.2500993552354</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V31" t="n">
-        <v>490.2500993552354</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W31" t="n">
-        <v>200.8329293182748</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X31" t="n">
-        <v>200.8329293182748</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.8329293182748</v>
+        <v>131.8815591656899</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>799.1015098861748</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C32" t="n">
-        <v>799.1015098861748</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="D32" t="n">
-        <v>799.1015098861748</v>
+        <v>561.7896003212277</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>561.7896003212277</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6733,19 +6733,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>1563.476704221264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X32" t="n">
-        <v>1190.010945960184</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y32" t="n">
-        <v>1185.701349950297</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6788,40 +6788,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2575.520772018258</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2575.520772018258</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2575.520772018258</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2575.520772018258</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>2575.520772018258</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2575.520772018258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2575.520772018258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2354.728192874728</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.945354755378</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>804.3748553050402</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>446.1091566982897</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>60.32090410004548</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>60.32090410004548</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>60.32090410004548</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>60.32090410004548</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.684526795312</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.5451948195</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7128,7 +7128,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
         <v>343.360151857325</v>
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>799.1015098861748</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="C38" t="n">
-        <v>799.1015098861748</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="D38" t="n">
-        <v>799.1015098861748</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7204,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X38" t="n">
-        <v>1189.240841861987</v>
+        <v>1722.328754618813</v>
       </c>
       <c r="Y38" t="n">
-        <v>799.1015098861748</v>
+        <v>1332.189422643001</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>170.577874895784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>170.577874895784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>170.577874895784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1338.355738489329</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>1338.355738489329</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>1338.355738489329</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2498.428370589024</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="V41" t="n">
-        <v>2467.863565799377</v>
+        <v>2279.793703561087</v>
       </c>
       <c r="W41" t="n">
-        <v>2115.094910529263</v>
+        <v>1927.025048290972</v>
       </c>
       <c r="X41" t="n">
-        <v>2115.094910529263</v>
+        <v>1553.559290029893</v>
       </c>
       <c r="Y41" t="n">
-        <v>1724.955578553451</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>640.1231790760426</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.381229508782</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.41871256837</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D44" t="n">
-        <v>1496.41871256837</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E44" t="n">
-        <v>1110.630459970126</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F44" t="n">
-        <v>699.6445551805186</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>281.6807470787055</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7651,16 +7651,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7681,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548716</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572904</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>263.0480264917441</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>274.3455134968399</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>387.9064735273546</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,10 +11150,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.3884445891959</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,7 +22561,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22631,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>54.71802040920606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22837,16 +22837,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>80.49467379535915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.660577062674207</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>323.535651625599</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23038,13 +23038,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>36.43209322947342</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23165,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>259.5852974815708</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>94.79428962526623</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>95.2769371970778</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>61.82274204898322</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>139.4951843944459</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>139.005434824964</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194535</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>130.1770316738277</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037955</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
-        <v>14.932250645712</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>222.9160118599466</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>52.54455953715788</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>56.01837628787163</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>326.2618471346671</v>
       </c>
       <c r="G17" t="n">
-        <v>84.10211020222329</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.8698384320129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>197.216833286624</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>201.2142045955157</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>16.73665413220903</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>338.9843837120306</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>8.811287602451756</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>348.2147033497948</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.930590783921332</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.04847948014711</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24660,16 +24660,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>391.0253594498678</v>
+        <v>354.8457559634438</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>69.274771074697</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.8168836973752</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>56.03920967071809</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.9714386062653</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>55.37590612510768</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>145.617173187977</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>250.4617644510738</v>
+        <v>212.5295090052616</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>40.70234469712977</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>32.16060215887677</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>100.7595885034783</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25836,16 +25836,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>137.9093583789966</v>
       </c>
       <c r="U43" t="n">
-        <v>83.12091415361562</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46238515859952</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25921,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>242.3315729479252</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>43.85831389017028</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>520354.2281896697</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520354.2281896696</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845207</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="F2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26343,7 +26343,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,7 +26352,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923566</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>375583.8824232418</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95810.56529667105</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>42169.81622231289</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>42169.81622231289</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="H4" t="n">
         <v>44802.65617556861</v>
@@ -26441,19 +26441,19 @@
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
@@ -26478,22 +26478,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38139.58762613964</v>
+        <v>-50357.5982461801</v>
       </c>
       <c r="C6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536763</v>
       </c>
       <c r="D6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536768</v>
       </c>
       <c r="E6" t="n">
-        <v>43392.98961619203</v>
+        <v>-301626.6340151871</v>
       </c>
       <c r="F6" t="n">
-        <v>82021.87074542776</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="G6" t="n">
-        <v>-238295.9286496138</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="H6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="I6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="J6" t="n">
-        <v>74228.01117452179</v>
+        <v>68159.59742870266</v>
       </c>
       <c r="K6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="L6" t="n">
-        <v>137287.9537736279</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="M6" t="n">
-        <v>128530.3707784144</v>
+        <v>23246.17935375071</v>
       </c>
       <c r="N6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="O6" t="n">
-        <v>41477.38847695706</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="P6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912535</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>342.7224034979614</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155792</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466301</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760122</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461253</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>17.908887208846</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470703</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677234</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840335</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081219</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796964</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870384</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847514</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626982</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132623</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520193</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>2.59355562872768</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779993</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358774</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>19.5917522583341</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9226257568905</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650264</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164381</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263573</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504677</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497753</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0631530931000621</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623708</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227323</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174391</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170849</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894689</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948824</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394056</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179691</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938417</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587928</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390064</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457198</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023555</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>151.2980666667449</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424833</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>151.2980666667449</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>49.48341136478941</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831905</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
         <v>297.223041434342</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36919,13 +36919,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.997506289869</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,19 +37156,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,10 +37870,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393296.3414124863</v>
+        <v>454131.8163241863</v>
       </c>
     </row>
     <row r="7">
@@ -658,65 +658,65 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>29.88929839105575</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>147.9845033927267</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>81.0053776549329</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>111.0129723351653</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>95.09774413911212</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>97.91764538942627</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>55.66811582074952</v>
       </c>
       <c r="F13" t="n">
-        <v>83.59830597394803</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>300.4171477863695</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>121.0471358344616</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541061</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>80.61419860704439</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>330.4621644664533</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -1973,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>239.8206625621334</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>126.5380538746192</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.63926978364057</v>
+        <v>1.465802816548481</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>27.31958316414132</v>
       </c>
       <c r="D23" t="n">
-        <v>337.9463874884739</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>65.56946667100016</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0.3885342695788339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7806877295491</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>52.03028977826759</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>186.4369133950372</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>77.15919157187217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>235.4745188564437</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>115.7401414943021</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>350.8368360709933</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>125.6967119973913</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.31414305688422</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>120.1202051330291</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>157.2015916732074</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.707323882823606</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>311.4360584298281</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>142.2551106500948</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>77.390420905461</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>87.12574707908773</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>162.4608466928088</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>85.42068552220969</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>262.5770567221877</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4594,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="W5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.2332497330343</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C8" t="n">
-        <v>577.2332497330343</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D8" t="n">
-        <v>577.2332497330343</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.2332497330343</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>481.618781308658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>481.618781308658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>481.618781308658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>481.618781308658</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1315.737983561872</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="C11" t="n">
-        <v>946.7754666214607</v>
+        <v>1314.867453641744</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7171392082162</v>
+        <v>956.6017550349939</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>570.8135024367496</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>570.8135024367496</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>152.8496943349364</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U11" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W11" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X11" t="n">
-        <v>2092.477155601806</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y11" t="n">
-        <v>1702.337823625994</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5126,43 +5126,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.3857151273827</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C13" t="n">
-        <v>138.3857151273827</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D13" t="n">
-        <v>138.3857151273827</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E13" t="n">
-        <v>138.3857151273827</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5223,28 +5223,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1210.087414675782</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="C14" t="n">
-        <v>1210.087414675782</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.087414675782</v>
+        <v>775.3584543528539</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2301.215900344554</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>1970.153013000984</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>1970.153013000984</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X14" t="n">
-        <v>1596.687254739904</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y14" t="n">
-        <v>1596.687254739904</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="15">
@@ -5339,16 +5339,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5442,40 +5442,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X16" t="n">
         <v>53.94298182036445</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1993.54646147304</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>1624.583944532628</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1266.318245925878</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>880.5299933276337</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W17" t="n">
-        <v>1993.54646147304</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X17" t="n">
-        <v>1993.54646147304</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y17" t="n">
-        <v>1993.54646147304</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5679,43 +5679,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
         <v>53.94298182036445</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1380.123535465744</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C20" t="n">
-        <v>1011.161018525332</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.161018525332</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="E20" t="n">
         <v>625.3727659270879</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2119.49203079998</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>1766.723375529866</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X20" t="n">
-        <v>1766.723375529866</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y20" t="n">
-        <v>1766.723375529866</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
         <v>670.8219208598706</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>1236.578376364605</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037877</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>1210.087414675782</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635869</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>631.9064409481871</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C26" t="n">
-        <v>631.9064409481871</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D26" t="n">
-        <v>273.6407423414366</v>
+        <v>792.5160654321296</v>
       </c>
       <c r="E26" t="n">
-        <v>273.6407423414366</v>
+        <v>792.5160654321296</v>
       </c>
       <c r="F26" t="n">
-        <v>273.6407423414366</v>
+        <v>381.530160642522</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>381.530160642522</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>54.33544067852489</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862885</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.880026519314</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.1113712492</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>1408.645612988121</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y26" t="n">
-        <v>1018.506281012309</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1314.38774159731</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C29" t="n">
-        <v>945.4252246568988</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D29" t="n">
-        <v>587.1595260501483</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E29" t="n">
-        <v>587.1595260501483</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.527073573122</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.527073573122</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.38774159731</v>
+        <v>1352.60098147425</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>352.67413830922</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V31" t="n">
-        <v>352.67413830922</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W31" t="n">
-        <v>352.67413830922</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X31" t="n">
-        <v>352.67413830922</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.8815591656899</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1289.01781586839</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C32" t="n">
-        <v>920.0552989279781</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="D32" t="n">
-        <v>561.7896003212277</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>561.7896003212277</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.48357412947</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>1289.01781586839</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1289.01781586839</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6891,13 +6891,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
         <v>53.94298182036445</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1173.337372245452</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="C35" t="n">
-        <v>804.3748553050402</v>
+        <v>1138.127394280273</v>
       </c>
       <c r="D35" t="n">
-        <v>446.1091566982897</v>
+        <v>1138.127394280273</v>
       </c>
       <c r="E35" t="n">
-        <v>60.32090410004548</v>
+        <v>752.3391416820286</v>
       </c>
       <c r="F35" t="n">
-        <v>60.32090410004548</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>60.32090410004548</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>60.32090410004548</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>1563.476704221264</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>1563.476704221264</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y35" t="n">
-        <v>1173.337372245452</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>945.5895825788796</v>
+        <v>1748.280186455193</v>
       </c>
       <c r="C38" t="n">
-        <v>945.5895825788796</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>945.5895825788796</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
         <v>2697.149091018222</v>
@@ -7207,19 +7207,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W38" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X38" t="n">
-        <v>1722.328754618813</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y38" t="n">
-        <v>1332.189422643001</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.6741383092202</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
         <v>53.94298182036445</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2498.428370589024</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2279.793703561087</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2279.793703561087</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2279.793703561087</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1927.025048290972</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1553.559290029893</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>350.9495687306105</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C43" t="n">
-        <v>350.9495687306105</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>132.1151241491129</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>640.1231790760426</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V43" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W43" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X43" t="n">
-        <v>350.9495687306105</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y43" t="n">
-        <v>350.9495687306105</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>799.1015098861748</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>799.1015098861748</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>799.1015098861748</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,25 +7648,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.018536202444</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.256750840535</v>
       </c>
       <c r="V44" t="n">
-        <v>2302.075095457302</v>
+        <v>1893.193863496965</v>
       </c>
       <c r="W44" t="n">
-        <v>1949.306440187188</v>
+        <v>1540.425208226851</v>
       </c>
       <c r="X44" t="n">
-        <v>1575.840681926108</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="Y44" t="n">
-        <v>1185.701349950297</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7730,22 +7730,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>325.5314024181542</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>178.6414549202439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W46" t="n">
-        <v>473.4444960005474</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X46" t="n">
-        <v>473.4444960005474</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>473.4444960005474</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783514</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22682,7 +22682,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22834,25 +22834,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>97.54843351316518</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>9.660577062674207</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22913,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>323.535651625599</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>325.8706680867786</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>36.43209322947342</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23223,7 +23223,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.5852974815708</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>226.0051273749309</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>90.76584682581965</v>
       </c>
       <c r="F13" t="n">
-        <v>61.82274204898322</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23463,13 +23463,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>81.51322228589231</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>130.1770316738277</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787163</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>326.2618471346671</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>18.77880425095975</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>49.80904827649567</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>142.1097075101283</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>201.2142045955157</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24177,16 +24177,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>157.4983735401874</v>
+        <v>250.6718405072795</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>337.9533086068662</v>
       </c>
       <c r="D23" t="n">
-        <v>16.73665413220903</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24265,10 +24265,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>89.8011526503046</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>348.2147033497948</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.5427819752824</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>46.8347852886633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24654,10 +24654,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>62.45749068994775</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>354.8457559634438</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>199.8010252610164</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>69.274771074697</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>50.80735538553404</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>238.9429001263809</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>56.03920967071809</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>281.1793337443202</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>145.617173187977</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>245.1526866379785</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>212.5295090052616</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>178.1246562991137</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>71.29778323365252</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.16060215887677</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>68.03062711747025</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>137.9093583789966</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>11.95486611616269</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.3315729479252</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.85831389017028</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.7086927898</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26331,10 +26331,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26343,13 +26343,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
@@ -26423,43 +26423,43 @@
         <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="E4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="F4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50357.5982461801</v>
+        <v>-39361.38868814366</v>
       </c>
       <c r="C6" t="n">
-        <v>30411.83328536763</v>
+        <v>41408.04284340404</v>
       </c>
       <c r="D6" t="n">
-        <v>30411.83328536768</v>
+        <v>41408.04284340402</v>
       </c>
       <c r="E6" t="n">
-        <v>-301626.6340151871</v>
+        <v>-296165.0616439499</v>
       </c>
       <c r="F6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="G6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="H6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="I6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="J6" t="n">
-        <v>68159.59742870266</v>
+        <v>73621.1697999399</v>
       </c>
       <c r="K6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="L6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="M6" t="n">
-        <v>23246.17935375071</v>
+        <v>28707.75172498802</v>
       </c>
       <c r="N6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990463</v>
       </c>
       <c r="O6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="P6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26770,16 +26770,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26810,10 +26810,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>55.51629994036219</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35494,7 +35494,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35503,7 +35503,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36846,13 +36846,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37083,13 +37083,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
